--- a/results/gurobi_cplex_comparison/seed_50_k_50.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_50.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.025</v>
+        <v>1.597</v>
       </c>
       <c r="F2">
-        <v>0.046</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>2.269</v>
       </c>
       <c r="F3">
-        <v>0.07199999999999999</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.019</v>
+        <v>3.044</v>
       </c>
       <c r="F4">
-        <v>0.046</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.021</v>
+        <v>4.015</v>
       </c>
       <c r="F5">
-        <v>0.052</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.067</v>
+        <v>5.072</v>
       </c>
       <c r="F6">
-        <v>0.076</v>
+        <v>1.198</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.183</v>
+        <v>6.398</v>
       </c>
       <c r="F7">
-        <v>7.982</v>
+        <v>8.526</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.037</v>
+        <v>7.498</v>
       </c>
       <c r="F8">
-        <v>0.06900000000000001</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06</v>
+        <v>9.068</v>
       </c>
       <c r="F9">
-        <v>0.141</v>
+        <v>2.171</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.066</v>
+        <v>10.646</v>
       </c>
       <c r="F10">
-        <v>0.117</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.058</v>
+        <v>12.208</v>
       </c>
       <c r="F11">
-        <v>0.08599999999999999</v>
+        <v>2.813</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.204</v>
+        <v>14.141</v>
       </c>
       <c r="F12">
-        <v>126.675</v>
+        <v>24.168</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.158</v>
+        <v>16.055</v>
       </c>
       <c r="F13">
-        <v>154.161</v>
+        <v>15.122</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.34</v>
+        <v>18.323</v>
       </c>
       <c r="F14">
-        <v>100.76</v>
+        <v>42.858</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.074</v>
+        <v>20.408</v>
       </c>
       <c r="F15">
-        <v>69.399</v>
+        <v>10.436</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.315</v>
+        <v>22.959</v>
       </c>
       <c r="F16">
-        <v>140.536</v>
+        <v>19.905</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.616</v>
+        <v>26.179</v>
       </c>
       <c r="F17">
-        <v>131.78</v>
+        <v>19.021</v>
       </c>
     </row>
   </sheetData>
